--- a/Gantt chart 4.0 (3).xlsx
+++ b/Gantt chart 4.0 (3).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dayyan\Desktop\ASSIGNMENT @\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dayyan\Desktop\SOFTWARE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D947A5DE-A619-48B1-9ECB-B6036776B6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB92A21-13D1-4F0E-A783-258EDE21731F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">Keep updates the Status </t>
   </si>
   <si>
-    <t>Update plans</t>
+    <t>Update plan</t>
   </si>
 </sst>
 </file>
@@ -832,6 +832,30 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -840,30 +864,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1256,8 +1256,8 @@
   </sheetPr>
   <dimension ref="B1:BO53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -1287,13 +1287,13 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1">
-      <c r="B2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="B2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1301,37 +1301,37 @@
         <v>1</v>
       </c>
       <c r="J2" s="26"/>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="27"/>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="43"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="30"/>
-      <c r="V2" s="45" t="s">
+      <c r="V2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="44"/>
       <c r="Z2" s="31"/>
-      <c r="AA2" s="45" t="s">
+      <c r="AA2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="47"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="44"/>
       <c r="AH2" s="32"/>
       <c r="AI2" s="33" t="s">
         <v>7</v>
@@ -1345,22 +1345,22 @@
       <c r="AP2" s="34"/>
     </row>
     <row r="3" spans="2:67" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="45" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -1387,12 +1387,12 @@
       <c r="AA3" s="29"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1">
-      <c r="B4" s="39"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="10">
         <v>1</v>
       </c>
@@ -2400,17 +2400,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:BO4">
     <cfRule type="expression" dxfId="8" priority="8">
